--- a/Git桌面-不放大文件/汇报/第九次汇报/所有实验结果-第九次汇报.xlsx
+++ b/Git桌面-不放大文件/汇报/第九次汇报/所有实验结果-第九次汇报.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDEA Projects\Git桌面-不放大文件\汇报\第九次汇报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E26CC81-D91B-4A8E-B316-0957BE71CAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6F7734-2C56-48ED-ABB8-30CEF580CA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -200,12 +200,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -220,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -246,14 +258,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3117,7 +3141,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -3152,7 +3176,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="4" t="s">
         <v>21</v>
       </c>
@@ -3185,7 +3209,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="4" t="s">
         <v>26</v>
       </c>
@@ -3218,7 +3242,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="4" t="s">
         <v>27</v>
       </c>
@@ -3251,7 +3275,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="4" t="s">
         <v>28</v>
       </c>
@@ -3284,7 +3308,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="4" t="s">
         <v>29</v>
       </c>
@@ -3317,7 +3341,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="4" t="s">
         <v>30</v>
       </c>
@@ -3350,7 +3374,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="4" t="s">
         <v>31</v>
       </c>
@@ -3383,7 +3407,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="4" t="s">
         <v>32</v>
       </c>
@@ -3416,7 +3440,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="4" t="s">
         <v>33</v>
       </c>
@@ -3449,7 +3473,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="4" t="s">
         <v>34</v>
       </c>
@@ -3482,7 +3506,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="4" t="s">
         <v>35</v>
       </c>
@@ -3515,7 +3539,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3548,7 +3572,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="4" t="s">
         <v>37</v>
       </c>
@@ -3581,7 +3605,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="4" t="s">
         <v>38</v>
       </c>
@@ -3614,7 +3638,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
@@ -3647,7 +3671,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -3682,7 +3706,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="4" t="s">
         <v>21</v>
       </c>
@@ -3715,7 +3739,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="4" t="s">
         <v>26</v>
       </c>
@@ -3748,7 +3772,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="4" t="s">
         <v>27</v>
       </c>
@@ -3781,7 +3805,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="4" t="s">
         <v>28</v>
       </c>
@@ -3814,7 +3838,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="4" t="s">
         <v>29</v>
       </c>
@@ -3847,7 +3871,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
+      <c r="A24" s="11"/>
       <c r="B24" s="4" t="s">
         <v>30</v>
       </c>
@@ -3880,7 +3904,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="4" t="s">
         <v>31</v>
       </c>
@@ -3913,7 +3937,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="4" t="s">
         <v>32</v>
       </c>
@@ -3946,7 +3970,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
+      <c r="A27" s="11"/>
       <c r="B27" s="4" t="s">
         <v>33</v>
       </c>
@@ -3979,7 +4003,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
+      <c r="A28" s="11"/>
       <c r="B28" s="4" t="s">
         <v>34</v>
       </c>
@@ -4012,7 +4036,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
+      <c r="A29" s="11"/>
       <c r="B29" s="4" t="s">
         <v>35</v>
       </c>
@@ -4045,7 +4069,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
+      <c r="A30" s="11"/>
       <c r="B30" s="4" t="s">
         <v>36</v>
       </c>
@@ -4078,7 +4102,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
+      <c r="A31" s="11"/>
       <c r="B31" s="4" t="s">
         <v>37</v>
       </c>
@@ -4111,7 +4135,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="4" t="s">
         <v>38</v>
       </c>
@@ -4144,7 +4168,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
+      <c r="A33" s="11"/>
       <c r="B33" s="3" t="s">
         <v>19</v>
       </c>
@@ -4177,7 +4201,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -4212,7 +4236,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
+      <c r="A35" s="11"/>
       <c r="B35" s="4" t="s">
         <v>21</v>
       </c>
@@ -4245,7 +4269,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
+      <c r="A36" s="11"/>
       <c r="B36" s="4" t="s">
         <v>26</v>
       </c>
@@ -4278,7 +4302,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
+      <c r="A37" s="11"/>
       <c r="B37" s="4" t="s">
         <v>27</v>
       </c>
@@ -4311,7 +4335,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
+      <c r="A38" s="11"/>
       <c r="B38" s="4" t="s">
         <v>28</v>
       </c>
@@ -4344,7 +4368,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
+      <c r="A39" s="11"/>
       <c r="B39" s="4" t="s">
         <v>29</v>
       </c>
@@ -4377,7 +4401,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
+      <c r="A40" s="11"/>
       <c r="B40" s="4" t="s">
         <v>30</v>
       </c>
@@ -4410,7 +4434,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="9"/>
+      <c r="A41" s="11"/>
       <c r="B41" s="4" t="s">
         <v>31</v>
       </c>
@@ -4443,7 +4467,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="9"/>
+      <c r="A42" s="11"/>
       <c r="B42" s="4" t="s">
         <v>32</v>
       </c>
@@ -4476,7 +4500,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="9"/>
+      <c r="A43" s="11"/>
       <c r="B43" s="4" t="s">
         <v>33</v>
       </c>
@@ -4509,7 +4533,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="9"/>
+      <c r="A44" s="11"/>
       <c r="B44" s="4" t="s">
         <v>34</v>
       </c>
@@ -4542,7 +4566,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="9"/>
+      <c r="A45" s="11"/>
       <c r="B45" s="4" t="s">
         <v>35</v>
       </c>
@@ -4575,7 +4599,7 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
+      <c r="A46" s="11"/>
       <c r="B46" s="4" t="s">
         <v>36</v>
       </c>
@@ -4608,7 +4632,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="9"/>
+      <c r="A47" s="11"/>
       <c r="B47" s="4" t="s">
         <v>37</v>
       </c>
@@ -4641,7 +4665,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
+      <c r="A48" s="11"/>
       <c r="B48" s="4" t="s">
         <v>38</v>
       </c>
@@ -4674,7 +4698,7 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="9"/>
+      <c r="A49" s="11"/>
       <c r="B49" s="3" t="s">
         <v>19</v>
       </c>
@@ -4787,7 +4811,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -4822,7 +4846,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="7" t="s">
         <v>21</v>
       </c>
@@ -4855,7 +4879,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="7" t="s">
         <v>26</v>
       </c>
@@ -4888,7 +4912,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="7" t="s">
         <v>27</v>
       </c>
@@ -4921,7 +4945,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="7" t="s">
         <v>28</v>
       </c>
@@ -4954,7 +4978,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="7" t="s">
         <v>29</v>
       </c>
@@ -4987,7 +5011,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="7" t="s">
         <v>30</v>
       </c>
@@ -5020,7 +5044,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="7" t="s">
         <v>31</v>
       </c>
@@ -5053,7 +5077,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="7" t="s">
         <v>32</v>
       </c>
@@ -5086,7 +5110,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="7" t="s">
         <v>33</v>
       </c>
@@ -5119,7 +5143,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="7" t="s">
         <v>34</v>
       </c>
@@ -5152,7 +5176,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="7" t="s">
         <v>35</v>
       </c>
@@ -5185,7 +5209,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="7" t="s">
         <v>36</v>
       </c>
@@ -5218,7 +5242,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="7" t="s">
         <v>37</v>
       </c>
@@ -5251,7 +5275,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="7" t="s">
         <v>38</v>
       </c>
@@ -5284,7 +5308,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="7" t="s">
         <v>19</v>
       </c>
@@ -5317,7 +5341,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -5352,7 +5376,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="7" t="s">
         <v>21</v>
       </c>
@@ -5385,7 +5409,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="7" t="s">
         <v>26</v>
       </c>
@@ -5418,7 +5442,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="7" t="s">
         <v>27</v>
       </c>
@@ -5451,7 +5475,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="7" t="s">
         <v>28</v>
       </c>
@@ -5484,7 +5508,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="7" t="s">
         <v>29</v>
       </c>
@@ -5517,7 +5541,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
+      <c r="A24" s="11"/>
       <c r="B24" s="7" t="s">
         <v>30</v>
       </c>
@@ -5550,7 +5574,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="7" t="s">
         <v>31</v>
       </c>
@@ -5583,7 +5607,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="7" t="s">
         <v>32</v>
       </c>
@@ -5616,7 +5640,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
+      <c r="A27" s="11"/>
       <c r="B27" s="7" t="s">
         <v>33</v>
       </c>
@@ -5649,7 +5673,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
+      <c r="A28" s="11"/>
       <c r="B28" s="7" t="s">
         <v>34</v>
       </c>
@@ -5682,7 +5706,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
+      <c r="A29" s="11"/>
       <c r="B29" s="7" t="s">
         <v>35</v>
       </c>
@@ -5715,7 +5739,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
+      <c r="A30" s="11"/>
       <c r="B30" s="7" t="s">
         <v>36</v>
       </c>
@@ -5748,7 +5772,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
+      <c r="A31" s="11"/>
       <c r="B31" s="7" t="s">
         <v>37</v>
       </c>
@@ -5781,7 +5805,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="7" t="s">
         <v>38</v>
       </c>
@@ -5814,7 +5838,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
+      <c r="A33" s="11"/>
       <c r="B33" s="7" t="s">
         <v>19</v>
       </c>
@@ -5847,7 +5871,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B34" s="7" t="s">
@@ -5882,7 +5906,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
+      <c r="A35" s="11"/>
       <c r="B35" s="7" t="s">
         <v>21</v>
       </c>
@@ -5915,7 +5939,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
+      <c r="A36" s="11"/>
       <c r="B36" s="7" t="s">
         <v>26</v>
       </c>
@@ -5948,7 +5972,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
+      <c r="A37" s="11"/>
       <c r="B37" s="7" t="s">
         <v>27</v>
       </c>
@@ -5981,7 +6005,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
+      <c r="A38" s="11"/>
       <c r="B38" s="7" t="s">
         <v>28</v>
       </c>
@@ -6014,7 +6038,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
+      <c r="A39" s="11"/>
       <c r="B39" s="7" t="s">
         <v>29</v>
       </c>
@@ -6047,7 +6071,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
+      <c r="A40" s="11"/>
       <c r="B40" s="7" t="s">
         <v>30</v>
       </c>
@@ -6080,7 +6104,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="9"/>
+      <c r="A41" s="11"/>
       <c r="B41" s="7" t="s">
         <v>31</v>
       </c>
@@ -6113,7 +6137,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="9"/>
+      <c r="A42" s="11"/>
       <c r="B42" s="7" t="s">
         <v>32</v>
       </c>
@@ -6146,7 +6170,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="9"/>
+      <c r="A43" s="11"/>
       <c r="B43" s="7" t="s">
         <v>33</v>
       </c>
@@ -6179,7 +6203,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="9"/>
+      <c r="A44" s="11"/>
       <c r="B44" s="7" t="s">
         <v>34</v>
       </c>
@@ -6212,7 +6236,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="9"/>
+      <c r="A45" s="11"/>
       <c r="B45" s="7" t="s">
         <v>35</v>
       </c>
@@ -6245,7 +6269,7 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
+      <c r="A46" s="11"/>
       <c r="B46" s="7" t="s">
         <v>36</v>
       </c>
@@ -6278,7 +6302,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="9"/>
+      <c r="A47" s="11"/>
       <c r="B47" s="7" t="s">
         <v>37</v>
       </c>
@@ -6311,7 +6335,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
+      <c r="A48" s="11"/>
       <c r="B48" s="7" t="s">
         <v>38</v>
       </c>
@@ -6344,7 +6368,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="9"/>
+      <c r="A49" s="11"/>
       <c r="B49" s="7" t="s">
         <v>19</v>
       </c>
@@ -6464,7 +6488,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -6499,7 +6523,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="7" t="s">
         <v>21</v>
       </c>
@@ -6532,7 +6556,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="7" t="s">
         <v>26</v>
       </c>
@@ -6565,7 +6589,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="7" t="s">
         <v>27</v>
       </c>
@@ -6598,7 +6622,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="7" t="s">
         <v>28</v>
       </c>
@@ -6631,7 +6655,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="7" t="s">
         <v>29</v>
       </c>
@@ -6664,7 +6688,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="7" t="s">
         <v>30</v>
       </c>
@@ -6697,7 +6721,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="7" t="s">
         <v>31</v>
       </c>
@@ -6730,7 +6754,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="7" t="s">
         <v>32</v>
       </c>
@@ -6763,7 +6787,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="7" t="s">
         <v>33</v>
       </c>
@@ -6796,7 +6820,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="7" t="s">
         <v>34</v>
       </c>
@@ -6829,7 +6853,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="7" t="s">
         <v>35</v>
       </c>
@@ -6862,7 +6886,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="7" t="s">
         <v>36</v>
       </c>
@@ -6895,7 +6919,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="7" t="s">
         <v>37</v>
       </c>
@@ -6928,7 +6952,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="7" t="s">
         <v>38</v>
       </c>
@@ -6961,7 +6985,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="7" t="s">
         <v>19</v>
       </c>
@@ -6994,7 +7018,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -7029,7 +7053,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="7" t="s">
         <v>21</v>
       </c>
@@ -7062,7 +7086,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="7" t="s">
         <v>26</v>
       </c>
@@ -7095,7 +7119,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="7" t="s">
         <v>27</v>
       </c>
@@ -7128,7 +7152,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="7" t="s">
         <v>28</v>
       </c>
@@ -7161,7 +7185,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="7" t="s">
         <v>29</v>
       </c>
@@ -7194,7 +7218,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
+      <c r="A24" s="11"/>
       <c r="B24" s="7" t="s">
         <v>30</v>
       </c>
@@ -7227,7 +7251,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="7" t="s">
         <v>31</v>
       </c>
@@ -7260,7 +7284,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="7" t="s">
         <v>32</v>
       </c>
@@ -7293,7 +7317,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
+      <c r="A27" s="11"/>
       <c r="B27" s="7" t="s">
         <v>33</v>
       </c>
@@ -7326,7 +7350,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
+      <c r="A28" s="11"/>
       <c r="B28" s="7" t="s">
         <v>34</v>
       </c>
@@ -7359,7 +7383,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
+      <c r="A29" s="11"/>
       <c r="B29" s="7" t="s">
         <v>35</v>
       </c>
@@ -7392,7 +7416,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
+      <c r="A30" s="11"/>
       <c r="B30" s="7" t="s">
         <v>36</v>
       </c>
@@ -7425,7 +7449,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
+      <c r="A31" s="11"/>
       <c r="B31" s="7" t="s">
         <v>37</v>
       </c>
@@ -7458,7 +7482,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="7" t="s">
         <v>38</v>
       </c>
@@ -7491,7 +7515,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
+      <c r="A33" s="11"/>
       <c r="B33" s="7" t="s">
         <v>19</v>
       </c>
@@ -7524,7 +7548,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B34" s="7" t="s">
@@ -7559,7 +7583,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
+      <c r="A35" s="11"/>
       <c r="B35" s="7" t="s">
         <v>21</v>
       </c>
@@ -7592,7 +7616,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
+      <c r="A36" s="11"/>
       <c r="B36" s="7" t="s">
         <v>26</v>
       </c>
@@ -7625,7 +7649,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
+      <c r="A37" s="11"/>
       <c r="B37" s="7" t="s">
         <v>27</v>
       </c>
@@ -7658,7 +7682,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
+      <c r="A38" s="11"/>
       <c r="B38" s="7" t="s">
         <v>28</v>
       </c>
@@ -7691,7 +7715,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
+      <c r="A39" s="11"/>
       <c r="B39" s="7" t="s">
         <v>29</v>
       </c>
@@ -7724,7 +7748,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
+      <c r="A40" s="11"/>
       <c r="B40" s="7" t="s">
         <v>30</v>
       </c>
@@ -7757,7 +7781,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="9"/>
+      <c r="A41" s="11"/>
       <c r="B41" s="7" t="s">
         <v>31</v>
       </c>
@@ -7790,7 +7814,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="9"/>
+      <c r="A42" s="11"/>
       <c r="B42" s="7" t="s">
         <v>32</v>
       </c>
@@ -7823,7 +7847,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="9"/>
+      <c r="A43" s="11"/>
       <c r="B43" s="7" t="s">
         <v>33</v>
       </c>
@@ -7856,7 +7880,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="9"/>
+      <c r="A44" s="11"/>
       <c r="B44" s="7" t="s">
         <v>34</v>
       </c>
@@ -7889,7 +7913,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="9"/>
+      <c r="A45" s="11"/>
       <c r="B45" s="7" t="s">
         <v>35</v>
       </c>
@@ -7922,7 +7946,7 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
+      <c r="A46" s="11"/>
       <c r="B46" s="7" t="s">
         <v>36</v>
       </c>
@@ -7955,7 +7979,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="9"/>
+      <c r="A47" s="11"/>
       <c r="B47" s="7" t="s">
         <v>37</v>
       </c>
@@ -7988,7 +8012,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
+      <c r="A48" s="11"/>
       <c r="B48" s="7" t="s">
         <v>38</v>
       </c>
@@ -8021,7 +8045,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="9"/>
+      <c r="A49" s="11"/>
       <c r="B49" s="7" t="s">
         <v>19</v>
       </c>
@@ -8068,8 +8092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EDB1A21-A515-4681-A252-DE8587D9197D}">
   <dimension ref="A1:W50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N48" sqref="N48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8118,40 +8142,40 @@
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="9">
         <v>0.94957999999999998</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <v>0.94742000000000004</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <v>0.93571000000000004</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="9">
         <v>0.92810999999999999</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="9">
         <v>0.91791</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="9">
         <v>0.90561999999999998</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="9">
         <v>0.90132999999999996</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="9">
         <v>0.88112000000000001</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="9">
         <v>0.83777000000000001</v>
       </c>
       <c r="O2" s="1"/>
@@ -8165,36 +8189,36 @@
       <c r="W2" s="1"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>0.93833</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <v>0.93681000000000003</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>0.92993999999999999</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
         <v>0.92740999999999996</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="9">
         <v>0.83665999999999996</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="9">
         <v>0.70843999999999996</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="9">
         <v>0.60692000000000002</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="9">
         <v>0.54069999999999996</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="9">
         <v>0.50656000000000001</v>
       </c>
       <c r="O3" s="1"/>
@@ -8208,36 +8232,36 @@
       <c r="W3" s="1"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>0.57459000000000005</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <v>0.57172000000000001</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>0.55930999999999997</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <v>0.55444000000000004</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="9">
         <v>0.54005000000000003</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="9">
         <v>0.52668000000000004</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="9">
         <v>0.51746999999999999</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="9">
         <v>0.51124000000000003</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="9">
         <v>0.50639999999999996</v>
       </c>
       <c r="O4" s="1"/>
@@ -8251,104 +8275,104 @@
       <c r="W4" s="1"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>0.47143000000000002</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>0.47143000000000002</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>0.47143000000000002</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <v>0.47143000000000002</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="10">
         <v>0.42748000000000003</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="10">
         <v>0.42748000000000003</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="10">
         <v>0.31558999999999998</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="10">
         <v>0.31558999999999998</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="10">
         <v>0.31558999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>0.47143000000000002</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>0.47143000000000002</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>0.47143000000000002</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <v>0.42748000000000003</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <v>0.31558999999999998</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="10">
         <v>0.31558999999999998</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="10">
         <v>0.31558999999999998</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="10">
         <v>0.31558999999999998</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="10">
         <v>0.24285999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>0.47143000000000002</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>0.47143000000000002</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>0.47143000000000002</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>0.42748000000000003</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="10">
         <v>0.42748000000000003</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="10">
         <v>0.31558999999999998</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="10">
         <v>0.31558999999999998</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="10">
         <v>0.31558999999999998</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="10">
         <v>0.24285999999999999</v>
       </c>
       <c r="O7" s="1"/>
@@ -8362,36 +8386,36 @@
       <c r="W7" s="1"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>0.47143000000000002</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>0.47143000000000002</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>0.42748000000000003</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <v>0.42748000000000003</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="10">
         <v>0.42748000000000003</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="10">
         <v>0.31558999999999998</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="10">
         <v>0.31558999999999998</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="10">
         <v>0.24285999999999999</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="10">
         <v>0.24285999999999999</v>
       </c>
       <c r="O8" s="1"/>
@@ -8405,36 +8429,36 @@
       <c r="W8" s="1"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>0.47143000000000002</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>0.47143000000000002</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>0.42748000000000003</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <v>0.42748000000000003</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="10">
         <v>0.42748000000000003</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="10">
         <v>0.31558999999999998</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="10">
         <v>0.31558999999999998</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="10">
         <v>0.24285999999999999</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="10">
         <v>0.24285999999999999</v>
       </c>
       <c r="O9" s="1"/>
@@ -8448,36 +8472,36 @@
       <c r="W9" s="1"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>0.47143000000000002</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>0.42748000000000003</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>0.42748000000000003</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <v>0.42748000000000003</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="10">
         <v>0.31558999999999998</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="10">
         <v>0.31558999999999998</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="10">
         <v>0.24285999999999999</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="10">
         <v>0.24285999999999999</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="10">
         <v>0.24285999999999999</v>
       </c>
       <c r="O10" s="1"/>
@@ -8491,36 +8515,36 @@
       <c r="W10" s="1"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <v>0.47143000000000002</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>0.47143000000000002</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <v>0.42748000000000003</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="10">
         <v>0.42748000000000003</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="10">
         <v>0.42748000000000003</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="10">
         <v>0.31558999999999998</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="10">
         <v>0.31558999999999998</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="10">
         <v>0.24285999999999999</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="10">
         <v>0.24285999999999999</v>
       </c>
       <c r="O11" s="1"/>
@@ -8534,36 +8558,36 @@
       <c r="W11" s="1"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <v>0.47143000000000002</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <v>0.42748000000000003</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <v>0.42748000000000003</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="10">
         <v>0.42748000000000003</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="10">
         <v>0.42748000000000003</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="10">
         <v>0.31558999999999998</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="10">
         <v>0.24285999999999999</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="10">
         <v>0.24285999999999999</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="10">
         <v>0.24285999999999999</v>
       </c>
       <c r="O12" s="1"/>
@@ -8577,36 +8601,36 @@
       <c r="W12" s="1"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <v>0.47143000000000002</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <v>0.47143000000000002</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <v>0.47143000000000002</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="10">
         <v>0.42748000000000003</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="10">
         <v>0.42748000000000003</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="10">
         <v>0.42748000000000003</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="10">
         <v>0.42748000000000003</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="10">
         <v>0.31558999999999998</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13" s="10">
         <v>0.24285999999999999</v>
       </c>
       <c r="O13" s="1"/>
@@ -8620,36 +8644,36 @@
       <c r="W13" s="1"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="10">
         <v>0.47143000000000002</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <v>0.47143000000000002</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <v>0.42748000000000003</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="10">
         <v>0.42748000000000003</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="10">
         <v>0.42748000000000003</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="10">
         <v>0.42748000000000003</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="10">
         <v>0.31558999999999998</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="10">
         <v>0.24285999999999999</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="10">
         <v>0.24285999999999999</v>
       </c>
       <c r="O14" s="1"/>
@@ -8663,36 +8687,36 @@
       <c r="W14" s="1"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="10">
         <v>0.47143000000000002</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <v>0.42748000000000003</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="10">
         <v>0.42748000000000003</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="10">
         <v>0.42748000000000003</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="10">
         <v>0.31558999999999998</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="10">
         <v>0.31558999999999998</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="10">
         <v>0.24285999999999999</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="10">
         <v>0.24285999999999999</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="10">
         <v>0.24285999999999999</v>
       </c>
       <c r="O15" s="1"/>
@@ -8706,36 +8730,36 @@
       <c r="W15" s="1"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="10">
         <v>0.47143000000000002</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <v>0.47143000000000002</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <v>0.47143000000000002</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="10">
         <v>0.42748000000000003</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="10">
         <v>0.42748000000000003</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="10">
         <v>0.31558999999999998</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="10">
         <v>0.31558999999999998</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="10">
         <v>0.31558999999999998</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L16" s="10">
         <v>0.24285999999999999</v>
       </c>
       <c r="O16" s="1"/>
@@ -8749,36 +8773,36 @@
       <c r="W16" s="1"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="7" t="s">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="15">
         <v>0.99899000000000004</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="15">
         <v>0.98524999999999996</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="15">
         <v>0.97050999999999998</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="15">
         <v>0.95576000000000005</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="15">
         <v>0.94101999999999997</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="15">
         <v>0.93505000000000005</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="15">
         <v>0.93066000000000004</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K17" s="15">
         <v>0.91403000000000001</v>
       </c>
-      <c r="L17" s="10">
+      <c r="L17" s="15">
         <v>0.89893000000000001</v>
       </c>
       <c r="O17" s="1"/>
@@ -8792,1111 +8816,1111 @@
       <c r="W17" s="1"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="9">
         <v>0.92198999999999998</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="9">
         <v>0.92135</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="9">
         <v>0.90868000000000004</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="9">
         <v>0.85555000000000003</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="9">
         <v>0.82794999999999996</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="9">
         <v>0.82713000000000003</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="9">
         <v>0.79896999999999996</v>
       </c>
-      <c r="K18" s="10">
+      <c r="K18" s="9">
         <v>0.76134999999999997</v>
       </c>
-      <c r="L18" s="10">
+      <c r="L18" s="9">
         <v>0.72826000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="9">
         <v>0.51376999999999995</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="9">
         <v>0.51109000000000004</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="9">
         <v>0.50673000000000001</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="9">
         <v>0.50656999999999996</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="9">
         <v>0.50451999999999997</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="9">
         <v>0.50444</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J19" s="9">
         <v>0.50326000000000004</v>
       </c>
-      <c r="K19" s="10">
+      <c r="K19" s="9">
         <v>0.50012000000000001</v>
       </c>
-      <c r="L19" s="10">
+      <c r="L19" s="9">
         <v>0.49958000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="9">
         <v>0.86929999999999996</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="9">
         <v>0.86199000000000003</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="9">
         <v>0.85121999999999998</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="9">
         <v>0.84409999999999996</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="9">
         <v>0.7409</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" s="9">
         <v>0.64632000000000001</v>
       </c>
-      <c r="J20" s="10">
+      <c r="J20" s="9">
         <v>0.57476000000000005</v>
       </c>
-      <c r="K20" s="10">
+      <c r="K20" s="9">
         <v>0.52951000000000004</v>
       </c>
-      <c r="L20" s="10">
+      <c r="L20" s="9">
         <v>0.50278</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
       <c r="C21" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="9">
         <v>0.69801999999999997</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="9">
         <v>0.69621999999999995</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="9">
         <v>0.69072</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="9">
         <v>0.68478000000000006</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="9">
         <v>0.65644999999999998</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="9">
         <v>0.62914999999999999</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J21" s="9">
         <v>0.58247000000000004</v>
       </c>
-      <c r="K21" s="10">
+      <c r="K21" s="9">
         <v>0.55349999999999999</v>
       </c>
-      <c r="L21" s="10">
+      <c r="L21" s="9">
         <v>0.53798000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="9">
         <v>0.60336999999999996</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="9">
         <v>0.59594999999999998</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="9">
         <v>0.58681000000000005</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="9">
         <v>0.57382</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="9">
         <v>0.55767</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="9">
         <v>0.55378000000000005</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J22" s="9">
         <v>0.54073000000000004</v>
       </c>
-      <c r="K22" s="10">
+      <c r="K22" s="9">
         <v>0.51095999999999997</v>
       </c>
-      <c r="L22" s="10">
+      <c r="L22" s="9">
         <v>0.49114000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="9">
         <v>0.79935999999999996</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="9">
         <v>0.79347000000000001</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="9">
         <v>0.79154000000000002</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="9">
         <v>0.77763000000000004</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="9">
         <v>0.77400999999999998</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23" s="9">
         <v>0.75117</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J23" s="9">
         <v>0.68781000000000003</v>
       </c>
-      <c r="K23" s="10">
+      <c r="K23" s="9">
         <v>0.68649000000000004</v>
       </c>
-      <c r="L23" s="10">
+      <c r="L23" s="9">
         <v>0.63282000000000005</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="9">
         <v>0.42857000000000001</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="9">
         <v>0.42857000000000001</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="9">
         <v>0.42857000000000001</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G24" s="9">
         <v>0.38462000000000002</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="9">
         <v>0.38462000000000002</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I24" s="9">
         <v>0.38462000000000002</v>
       </c>
-      <c r="J24" s="10">
+      <c r="J24" s="9">
         <v>0.38462000000000002</v>
       </c>
-      <c r="K24" s="10">
+      <c r="K24" s="9">
         <v>0.27272999999999997</v>
       </c>
-      <c r="L24" s="10">
+      <c r="L24" s="9">
         <v>0.2</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="9">
         <v>0.42857000000000001</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="9">
         <v>0.42857000000000001</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="9">
         <v>0.42857000000000001</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="9">
         <v>0.38462000000000002</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="9">
         <v>0.38462000000000002</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" s="9">
         <v>0.38462000000000002</v>
       </c>
-      <c r="J25" s="10">
+      <c r="J25" s="9">
         <v>0.38462000000000002</v>
       </c>
-      <c r="K25" s="10">
+      <c r="K25" s="9">
         <v>0.27272999999999997</v>
       </c>
-      <c r="L25" s="10">
+      <c r="L25" s="9">
         <v>0.2</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="10">
         <v>0.46600999999999998</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="10">
         <v>0.46600999999999998</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="10">
         <v>0.42204999999999998</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="10">
         <v>0.42204999999999998</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H26" s="10">
         <v>0.42204999999999998</v>
       </c>
-      <c r="I26" s="11">
+      <c r="I26" s="10">
         <v>0.42204999999999998</v>
       </c>
-      <c r="J26" s="11">
+      <c r="J26" s="10">
         <v>0.31015999999999999</v>
       </c>
-      <c r="K26" s="11">
+      <c r="K26" s="10">
         <v>0.23744000000000001</v>
       </c>
-      <c r="L26" s="11">
+      <c r="L26" s="10">
         <v>0.23744000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
       <c r="C27" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="10">
         <v>0.46600999999999998</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="10">
         <v>0.46600999999999998</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="10">
         <v>0.42204999999999998</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G27" s="10">
         <v>0.42204999999999998</v>
       </c>
-      <c r="H27" s="11">
+      <c r="H27" s="10">
         <v>0.31015999999999999</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I27" s="10">
         <v>0.31015999999999999</v>
       </c>
-      <c r="J27" s="11">
+      <c r="J27" s="10">
         <v>0.31015999999999999</v>
       </c>
-      <c r="K27" s="11">
+      <c r="K27" s="10">
         <v>0.23744000000000001</v>
       </c>
-      <c r="L27" s="11">
+      <c r="L27" s="10">
         <v>0.23744000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
       <c r="C28" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="10">
         <v>0.46600999999999998</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="10">
         <v>0.42204999999999998</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="10">
         <v>0.42204999999999998</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="10">
         <v>0.42204999999999998</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H28" s="10">
         <v>0.31015999999999999</v>
       </c>
-      <c r="I28" s="11">
+      <c r="I28" s="10">
         <v>0.31015999999999999</v>
       </c>
-      <c r="J28" s="11">
+      <c r="J28" s="10">
         <v>0.23744000000000001</v>
       </c>
-      <c r="K28" s="11">
+      <c r="K28" s="10">
         <v>0.23744000000000001</v>
       </c>
-      <c r="L28" s="11">
+      <c r="L28" s="10">
         <v>0.23744000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
       <c r="C29" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="10">
         <v>0.46600999999999998</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="10">
         <v>0.46600999999999998</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="10">
         <v>0.42204999999999998</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G29" s="10">
         <v>0.42204999999999998</v>
       </c>
-      <c r="H29" s="11">
+      <c r="H29" s="10">
         <v>0.31015999999999999</v>
       </c>
-      <c r="I29" s="11">
+      <c r="I29" s="10">
         <v>0.31015999999999999</v>
       </c>
-      <c r="J29" s="11">
+      <c r="J29" s="10">
         <v>0.31015999999999999</v>
       </c>
-      <c r="K29" s="11">
+      <c r="K29" s="10">
         <v>0.23744000000000001</v>
       </c>
-      <c r="L29" s="11">
+      <c r="L29" s="10">
         <v>0.23744000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
       <c r="C30" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="10">
         <v>0.46600999999999998</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="10">
         <v>0.42204999999999998</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="10">
         <v>0.42204999999999998</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30" s="10">
         <v>0.31015999999999999</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H30" s="10">
         <v>0.31015999999999999</v>
       </c>
-      <c r="I30" s="11">
+      <c r="I30" s="10">
         <v>0.31015999999999999</v>
       </c>
-      <c r="J30" s="11">
+      <c r="J30" s="10">
         <v>0.23744000000000001</v>
       </c>
-      <c r="K30" s="11">
+      <c r="K30" s="10">
         <v>0.23744000000000001</v>
       </c>
-      <c r="L30" s="11">
+      <c r="L30" s="10">
         <v>0.23744000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
       <c r="C31" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="10">
         <v>0.46600999999999998</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="10">
         <v>0.46600999999999998</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="10">
         <v>0.42204999999999998</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G31" s="10">
         <v>0.42204999999999998</v>
       </c>
-      <c r="H31" s="11">
+      <c r="H31" s="10">
         <v>0.31015999999999999</v>
       </c>
-      <c r="I31" s="11">
+      <c r="I31" s="10">
         <v>0.31015999999999999</v>
       </c>
-      <c r="J31" s="11">
+      <c r="J31" s="10">
         <v>0.31015999999999999</v>
       </c>
-      <c r="K31" s="11">
+      <c r="K31" s="10">
         <v>0.23744000000000001</v>
       </c>
-      <c r="L31" s="11">
+      <c r="L31" s="10">
         <v>0.23744000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
       <c r="C32" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="10">
         <v>0.46600999999999998</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="10">
         <v>0.46600999999999998</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="10">
         <v>0.46600999999999998</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G32" s="10">
         <v>0.42204999999999998</v>
       </c>
-      <c r="H32" s="11">
+      <c r="H32" s="10">
         <v>0.42204999999999998</v>
       </c>
-      <c r="I32" s="11">
+      <c r="I32" s="10">
         <v>0.42204999999999998</v>
       </c>
-      <c r="J32" s="11">
+      <c r="J32" s="10">
         <v>0.31015999999999999</v>
       </c>
-      <c r="K32" s="11">
+      <c r="K32" s="10">
         <v>0.31015999999999999</v>
       </c>
-      <c r="L32" s="11">
+      <c r="L32" s="10">
         <v>0.23744000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="7" t="s">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="15">
         <v>0.98997999999999997</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="15">
         <v>0.97267999999999999</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F33" s="15">
         <v>0.94535999999999998</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G33" s="15">
         <v>0.91803999999999997</v>
       </c>
-      <c r="H33" s="10">
+      <c r="H33" s="15">
         <v>0.91029000000000004</v>
       </c>
-      <c r="I33" s="10">
+      <c r="I33" s="15">
         <v>0.9052</v>
       </c>
-      <c r="J33" s="10">
+      <c r="J33" s="15">
         <v>0.89348000000000005</v>
       </c>
-      <c r="K33" s="10">
+      <c r="K33" s="15">
         <v>0.88224000000000002</v>
       </c>
-      <c r="L33" s="10">
+      <c r="L33" s="15">
         <v>0.87902999999999998</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="9">
         <v>0.98743999999999998</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="9">
         <v>0.98584000000000005</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F34" s="9">
         <v>0.98575999999999997</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G34" s="9">
         <v>0.98455000000000004</v>
       </c>
-      <c r="H34" s="10">
+      <c r="H34" s="9">
         <v>0.98360999999999998</v>
       </c>
-      <c r="I34" s="10">
+      <c r="I34" s="9">
         <v>0.98146999999999995</v>
       </c>
-      <c r="J34" s="10">
+      <c r="J34" s="9">
         <v>0.98058000000000001</v>
       </c>
-      <c r="K34" s="10">
+      <c r="K34" s="9">
         <v>0.98002999999999996</v>
       </c>
-      <c r="L34" s="10">
+      <c r="L34" s="9">
         <v>0.97914000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
       <c r="C35" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="9">
         <v>0.92390000000000005</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="9">
         <v>0.92118999999999995</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F35" s="9">
         <v>0.90961000000000003</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G35" s="9">
         <v>0.76427</v>
       </c>
-      <c r="H35" s="10">
+      <c r="H35" s="9">
         <v>0.65863000000000005</v>
       </c>
-      <c r="I35" s="10">
+      <c r="I35" s="9">
         <v>0.58223000000000003</v>
       </c>
-      <c r="J35" s="10">
+      <c r="J35" s="9">
         <v>0.47765999999999997</v>
       </c>
-      <c r="K35" s="10">
+      <c r="K35" s="9">
         <v>0.46616999999999997</v>
       </c>
-      <c r="L35" s="10">
+      <c r="L35" s="9">
         <v>0.42786000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
       <c r="C36" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="9">
         <v>0.43641000000000002</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="9">
         <v>0.43574000000000002</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F36" s="9">
         <v>0.43464000000000003</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G36" s="9">
         <v>0.43436000000000002</v>
       </c>
-      <c r="H36" s="10">
+      <c r="H36" s="9">
         <v>0.42279</v>
       </c>
-      <c r="I36" s="10">
+      <c r="I36" s="9">
         <v>0.42232999999999998</v>
       </c>
-      <c r="J36" s="10">
+      <c r="J36" s="9">
         <v>0.41731000000000001</v>
       </c>
-      <c r="K36" s="10">
+      <c r="K36" s="9">
         <v>0.40185999999999999</v>
       </c>
-      <c r="L36" s="10">
+      <c r="L36" s="9">
         <v>0.40050999999999998</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
       <c r="C37" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="9">
         <v>0.42857000000000001</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E37" s="9">
         <v>0.42857000000000001</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F37" s="9">
         <v>0.42857000000000001</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G37" s="9">
         <v>0.42857000000000001</v>
       </c>
-      <c r="H37" s="10">
+      <c r="H37" s="9">
         <v>0.38462000000000002</v>
       </c>
-      <c r="I37" s="10">
+      <c r="I37" s="9">
         <v>0.38462000000000002</v>
       </c>
-      <c r="J37" s="10">
+      <c r="J37" s="9">
         <v>0.38462000000000002</v>
       </c>
-      <c r="K37" s="10">
+      <c r="K37" s="9">
         <v>0.38462000000000002</v>
       </c>
-      <c r="L37" s="10">
+      <c r="L37" s="9">
         <v>0.27272999999999997</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
       <c r="C38" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="9">
         <v>0.42857000000000001</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E38" s="9">
         <v>0.42857000000000001</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F38" s="9">
         <v>0.42857000000000001</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G38" s="9">
         <v>0.42857000000000001</v>
       </c>
-      <c r="H38" s="10">
+      <c r="H38" s="9">
         <v>0.38462000000000002</v>
       </c>
-      <c r="I38" s="10">
+      <c r="I38" s="9">
         <v>0.27272999999999997</v>
       </c>
-      <c r="J38" s="10">
+      <c r="J38" s="9">
         <v>0.27272999999999997</v>
       </c>
-      <c r="K38" s="10">
+      <c r="K38" s="9">
         <v>0.27272999999999997</v>
       </c>
-      <c r="L38" s="10">
+      <c r="L38" s="9">
         <v>0.27272999999999997</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
       <c r="C39" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="9">
         <v>0.42857000000000001</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E39" s="9">
         <v>0.42857000000000001</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F39" s="9">
         <v>0.42857000000000001</v>
       </c>
-      <c r="G39" s="10">
+      <c r="G39" s="9">
         <v>0.38462000000000002</v>
       </c>
-      <c r="H39" s="10">
+      <c r="H39" s="9">
         <v>0.38462000000000002</v>
       </c>
-      <c r="I39" s="10">
+      <c r="I39" s="9">
         <v>0.27272999999999997</v>
       </c>
-      <c r="J39" s="10">
+      <c r="J39" s="9">
         <v>0.27272999999999997</v>
       </c>
-      <c r="K39" s="10">
+      <c r="K39" s="9">
         <v>0.27272999999999997</v>
       </c>
-      <c r="L39" s="10">
+      <c r="L39" s="9">
         <v>0.2</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
       <c r="C40" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="9">
         <v>0.42857000000000001</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E40" s="9">
         <v>0.42857000000000001</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F40" s="9">
         <v>0.42857000000000001</v>
       </c>
-      <c r="G40" s="10">
+      <c r="G40" s="9">
         <v>0.42857000000000001</v>
       </c>
-      <c r="H40" s="10">
+      <c r="H40" s="9">
         <v>0.38462000000000002</v>
       </c>
-      <c r="I40" s="10">
+      <c r="I40" s="9">
         <v>0.38462000000000002</v>
       </c>
-      <c r="J40" s="10">
+      <c r="J40" s="9">
         <v>0.38462000000000002</v>
       </c>
-      <c r="K40" s="10">
+      <c r="K40" s="9">
         <v>0.38462000000000002</v>
       </c>
-      <c r="L40" s="10">
+      <c r="L40" s="9">
         <v>0.38462000000000002</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
       <c r="C41" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D41" s="10">
         <v>0.46124999999999999</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E41" s="10">
         <v>0.41728999999999999</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F41" s="10">
         <v>0.41728999999999999</v>
       </c>
-      <c r="G41" s="11">
+      <c r="G41" s="10">
         <v>0.41728999999999999</v>
       </c>
-      <c r="H41" s="11">
+      <c r="H41" s="10">
         <v>0.41728999999999999</v>
       </c>
-      <c r="I41" s="11">
+      <c r="I41" s="10">
         <v>0.3054</v>
       </c>
-      <c r="J41" s="11">
+      <c r="J41" s="10">
         <v>0.23268</v>
       </c>
-      <c r="K41" s="11">
+      <c r="K41" s="10">
         <v>0.23268</v>
       </c>
-      <c r="L41" s="11">
+      <c r="L41" s="10">
         <v>0.23268</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
       <c r="C42" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="10">
         <v>0.46124999999999999</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E42" s="10">
         <v>0.46124999999999999</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="10">
         <v>0.3054</v>
       </c>
-      <c r="G42" s="11">
+      <c r="G42" s="10">
         <v>0.3054</v>
       </c>
-      <c r="H42" s="11">
+      <c r="H42" s="10">
         <v>0.3054</v>
       </c>
-      <c r="I42" s="11">
+      <c r="I42" s="10">
         <v>0.3054</v>
       </c>
-      <c r="J42" s="11">
+      <c r="J42" s="10">
         <v>0.3054</v>
       </c>
-      <c r="K42" s="11">
+      <c r="K42" s="10">
         <v>0.23268</v>
       </c>
-      <c r="L42" s="11">
+      <c r="L42" s="10">
         <v>0.23268</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
       <c r="C43" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D43" s="10">
         <v>0.46124999999999999</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E43" s="10">
         <v>0.46124999999999999</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F43" s="10">
         <v>0.46124999999999999</v>
       </c>
-      <c r="G43" s="11">
+      <c r="G43" s="10">
         <v>0.41728999999999999</v>
       </c>
-      <c r="H43" s="11">
+      <c r="H43" s="10">
         <v>0.41728999999999999</v>
       </c>
-      <c r="I43" s="11">
+      <c r="I43" s="10">
         <v>0.3054</v>
       </c>
-      <c r="J43" s="11">
+      <c r="J43" s="10">
         <v>0.3054</v>
       </c>
-      <c r="K43" s="11">
+      <c r="K43" s="10">
         <v>0.3054</v>
       </c>
-      <c r="L43" s="11">
+      <c r="L43" s="10">
         <v>0.23268</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
       <c r="C44" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D44" s="10">
         <v>0.46124999999999999</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E44" s="10">
         <v>0.46124999999999999</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F44" s="10">
         <v>0.41728999999999999</v>
       </c>
-      <c r="G44" s="11">
+      <c r="G44" s="10">
         <v>0.3054</v>
       </c>
-      <c r="H44" s="11">
+      <c r="H44" s="10">
         <v>0.3054</v>
       </c>
-      <c r="I44" s="11">
+      <c r="I44" s="10">
         <v>0.3054</v>
       </c>
-      <c r="J44" s="11">
+      <c r="J44" s="10">
         <v>0.3054</v>
       </c>
-      <c r="K44" s="11">
+      <c r="K44" s="10">
         <v>0.23268</v>
       </c>
-      <c r="L44" s="11">
+      <c r="L44" s="10">
         <v>0.23268</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
       <c r="C45" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D45" s="10">
         <v>0.46124999999999999</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E45" s="10">
         <v>0.46124999999999999</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F45" s="10">
         <v>0.46124999999999999</v>
       </c>
-      <c r="G45" s="11">
+      <c r="G45" s="10">
         <v>0.41728999999999999</v>
       </c>
-      <c r="H45" s="11">
+      <c r="H45" s="10">
         <v>0.41728999999999999</v>
       </c>
-      <c r="I45" s="11">
+      <c r="I45" s="10">
         <v>0.41728999999999999</v>
       </c>
-      <c r="J45" s="11">
+      <c r="J45" s="10">
         <v>0.3054</v>
       </c>
-      <c r="K45" s="11">
+      <c r="K45" s="10">
         <v>0.3054</v>
       </c>
-      <c r="L45" s="11">
+      <c r="L45" s="10">
         <v>0.23268</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
       <c r="C46" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="10">
         <v>0.46124999999999999</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E46" s="10">
         <v>0.46124999999999999</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F46" s="10">
         <v>0.46124999999999999</v>
       </c>
-      <c r="G46" s="11">
+      <c r="G46" s="10">
         <v>0.41728999999999999</v>
       </c>
-      <c r="H46" s="11">
+      <c r="H46" s="10">
         <v>0.41728999999999999</v>
       </c>
-      <c r="I46" s="11">
+      <c r="I46" s="10">
         <v>0.41728999999999999</v>
       </c>
-      <c r="J46" s="11">
+      <c r="J46" s="10">
         <v>0.3054</v>
       </c>
-      <c r="K46" s="11">
+      <c r="K46" s="10">
         <v>0.3054</v>
       </c>
-      <c r="L46" s="11">
+      <c r="L46" s="10">
         <v>0.23268</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
       <c r="C47" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D47" s="10">
         <v>0.41728999999999999</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E47" s="10">
         <v>0.41728999999999999</v>
       </c>
-      <c r="F47" s="11">
+      <c r="F47" s="10">
         <v>0.41728999999999999</v>
       </c>
-      <c r="G47" s="11">
+      <c r="G47" s="10">
         <v>0.41728999999999999</v>
       </c>
-      <c r="H47" s="11">
+      <c r="H47" s="10">
         <v>0.3054</v>
       </c>
-      <c r="I47" s="11">
+      <c r="I47" s="10">
         <v>0.23268</v>
       </c>
-      <c r="J47" s="11">
+      <c r="J47" s="10">
         <v>0.23268</v>
       </c>
-      <c r="K47" s="11">
+      <c r="K47" s="10">
         <v>0.23268</v>
       </c>
-      <c r="L47" s="11">
+      <c r="L47" s="10">
         <v>0.23268</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
       <c r="C48" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D48" s="10">
         <v>0.46124999999999999</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E48" s="10">
         <v>0.41728999999999999</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F48" s="10">
         <v>0.41728999999999999</v>
       </c>
-      <c r="G48" s="11">
+      <c r="G48" s="10">
         <v>0.41728999999999999</v>
       </c>
-      <c r="H48" s="11">
+      <c r="H48" s="10">
         <v>0.3054</v>
       </c>
-      <c r="I48" s="11">
+      <c r="I48" s="10">
         <v>0.3054</v>
       </c>
-      <c r="J48" s="11">
+      <c r="J48" s="10">
         <v>0.23268</v>
       </c>
-      <c r="K48" s="11">
+      <c r="K48" s="10">
         <v>0.23268</v>
       </c>
-      <c r="L48" s="11">
+      <c r="L48" s="10">
         <v>0.23268</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="7" t="s">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49" s="13">
         <v>0.99999000000000005</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E49" s="13">
         <v>0.99990000000000001</v>
       </c>
-      <c r="F49" s="10">
+      <c r="F49" s="13">
         <v>0.99968999999999997</v>
       </c>
-      <c r="G49" s="10">
+      <c r="G49" s="13">
         <v>0.99938000000000005</v>
       </c>
-      <c r="H49" s="10">
+      <c r="H49" s="13">
         <v>0.99914999999999998</v>
       </c>
-      <c r="I49" s="10">
+      <c r="I49" s="13">
         <v>0.99909999999999999</v>
       </c>
-      <c r="J49" s="10">
+      <c r="J49" s="13">
         <v>0.99817999999999996</v>
       </c>
-      <c r="K49" s="10">
+      <c r="K49" s="13">
         <v>0.99411000000000005</v>
       </c>
-      <c r="L49" s="10">
+      <c r="L49" s="13">
         <v>0.99006000000000005</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="11"/>
-      <c r="L50" s="11"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">
